--- a/similarities/split_global/harmonic_similarity_timestamps_113.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_113.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>jaah_5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C/5', 'D/3', 'G']]</t>
+          <t>['E:min7', 'A:7', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Bb', 'C:maj', 'F:maj']]</t>
+          <t>['D:min7', 'G:7', 'C:min7', 'F:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:33.466326', '0:00:38.923015')]</t>
+          <t>('0:00:18.600000', '0:00:22.920000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:03.861000', '0:01:06.732000')]</t>
+          <t>('0:00:19.030000', '0:00:22.230000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=33.466326']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=18.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=19.03</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:00:08.300000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=8.3</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+          <t>('0:00:23.300000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:13.420000')]</t>
+          <t>('0:00:19.140000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=19.14</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:15.530000', '0:00:16.900000')]</t>
+          <t>('0:01:34.060000', '0:01:53.500000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:01:00.760000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=94.06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=60.76</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab', 'Eb']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:16.070000', '0:02:21.510000')]</t>
+          <t>('0:02:04.300000', '0:02:09.240000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=124.3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:12.743000', '0:00:17.058000')]</t>
+          <t>('0:00:09.940000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:03:37.911000', '0:03:43.713000')]</t>
+          <t>('0:00:55.002834', '0:00:59.124376')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=9.94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.911']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb', 'Eb:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:7', 'F', 'C:7', 'F', 'Bb:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:09.280000')]</t>
+          <t>('0:00:12.430000', '0:00:19.140000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:10.130000', '0:00:15.540000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['F:min7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['F#:min7', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+          <t>('0:00:17.680000', '0:00:20.040000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+          <t>('0:00:05.708194', '0:00:10.061936')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min'], ['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['E', 'A', 'E', 'B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000'), ('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:00:06.726778', '0:00:14.737663')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.560000', '0:00:06.900000'), ('0:02:20.480000', '0:02:25.980000')]</t>
+          <t>('0:00:59.220000', '0:01:11.120000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>jaah_81</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>['Bb', 'B:dim7', 'F/5']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj'], ['B:maj', 'F#:7', 'B:maj']]</t>
+          <t>['Eb', 'E:dim7', 'Bb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000'), ('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:07.670000', '0:00:10.350000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:10.200000', '0:00:12.320000'), ('0:00:00.320000', '0:00:09.540000')]</t>
+          <t>('0:00:15.240000', '0:00:16.880000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46', 'https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-81#t=7.67</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=15.24</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>isophonics_238</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['B:dim7', 'C', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['B:dim7', 'C:maj', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:19.340000'), ('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:00:17.769637', '0:00:22.996281')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000'), ('0:00:24.680000', '0:00:31.240000')]</t>
+          <t>('0:00:18.320000', '0:00:21.080000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-238#t=17.769637</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=18.32</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:14.660000')]</t>
+          <t>('0:01:07.760000', '0:01:17.500000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:12.520000', '0:01:23.280000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=67.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:35.140000', '0:00:39.900000')]</t>
+          <t>('0:00:18.120000', '0:00:24.540000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:32.980000', '0:00:35.260000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=32.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj', 'G:maj', 'D/3']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000'), ('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:00:02.470042', '0:00:09.607823')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:01:08.669000', '0:01:14.662000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=2.470042</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=68.669</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
